--- a/published-data/fonds-solidarite/fds-2022-06-23/fonds-solidarite-volet-1-regional-categorie-juridique-latest.xlsx
+++ b/published-data/fonds-solidarite/fds-2022-06-23/fonds-solidarite-volet-1-regional-categorie-juridique-latest.xlsx
@@ -943,13 +943,13 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>187862</v>
+        <v>187863</v>
       </c>
       <c r="D13" t="n">
         <v>33264</v>
       </c>
       <c r="E13" t="n">
-        <v>1168235202</v>
+        <v>1168289738</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
@@ -4018,13 +4018,13 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>71279</v>
+        <v>71283</v>
       </c>
       <c r="D88" t="n">
         <v>12436</v>
       </c>
       <c r="E88" t="n">
-        <v>110317269</v>
+        <v>110329263</v>
       </c>
       <c r="F88" t="inlineStr">
         <is>
@@ -4141,13 +4141,13 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>18880</v>
+        <v>18884</v>
       </c>
       <c r="D91" t="n">
         <v>3383</v>
       </c>
       <c r="E91" t="n">
-        <v>75348959</v>
+        <v>75370883</v>
       </c>
       <c r="F91" t="inlineStr">
         <is>
@@ -4223,13 +4223,13 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>16950</v>
+        <v>16953</v>
       </c>
       <c r="D93" t="n">
         <v>2945</v>
       </c>
       <c r="E93" t="n">
-        <v>50842697</v>
+        <v>50862471</v>
       </c>
       <c r="F93" t="inlineStr">
         <is>
@@ -4428,13 +4428,13 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>6300</v>
+        <v>6301</v>
       </c>
       <c r="D98" t="n">
         <v>911</v>
       </c>
       <c r="E98" t="n">
-        <v>19499128</v>
+        <v>19502085</v>
       </c>
       <c r="F98" t="inlineStr">
         <is>
@@ -4510,13 +4510,13 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>9346</v>
+        <v>9348</v>
       </c>
       <c r="D100" t="n">
         <v>1304</v>
       </c>
       <c r="E100" t="n">
-        <v>23840698</v>
+        <v>23899308</v>
       </c>
       <c r="F100" t="inlineStr">
         <is>
@@ -5371,13 +5371,13 @@
         </is>
       </c>
       <c r="C121" t="n">
-        <v>1306413</v>
+        <v>1306416</v>
       </c>
       <c r="D121" t="n">
         <v>220388</v>
       </c>
       <c r="E121" t="n">
-        <v>2275540281</v>
+        <v>2275552863</v>
       </c>
       <c r="F121" t="inlineStr">
         <is>
@@ -5412,13 +5412,13 @@
         </is>
       </c>
       <c r="C122" t="n">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="D122" t="n">
         <v>48</v>
       </c>
       <c r="E122" t="n">
-        <v>1228132</v>
+        <v>1260995</v>
       </c>
       <c r="F122" t="inlineStr">
         <is>
@@ -5699,13 +5699,13 @@
         </is>
       </c>
       <c r="C129" t="n">
-        <v>633820</v>
+        <v>633827</v>
       </c>
       <c r="D129" t="n">
         <v>104985</v>
       </c>
       <c r="E129" t="n">
-        <v>3435533091</v>
+        <v>3435576311</v>
       </c>
       <c r="F129" t="inlineStr">
         <is>
@@ -5740,13 +5740,13 @@
         </is>
       </c>
       <c r="C130" t="n">
-        <v>4248</v>
+        <v>4250</v>
       </c>
       <c r="D130" t="n">
         <v>619</v>
       </c>
       <c r="E130" t="n">
-        <v>141302395</v>
+        <v>141666559</v>
       </c>
       <c r="F130" t="inlineStr">
         <is>
@@ -5822,13 +5822,13 @@
         </is>
       </c>
       <c r="C132" t="n">
-        <v>586035</v>
+        <v>586042</v>
       </c>
       <c r="D132" t="n">
         <v>90786</v>
       </c>
       <c r="E132" t="n">
-        <v>3472888767</v>
+        <v>3473327690</v>
       </c>
       <c r="F132" t="inlineStr">
         <is>
@@ -5986,13 +5986,13 @@
         </is>
       </c>
       <c r="C136" t="n">
-        <v>26705</v>
+        <v>26706</v>
       </c>
       <c r="D136" t="n">
         <v>4273</v>
       </c>
       <c r="E136" t="n">
-        <v>144407972</v>
+        <v>144413770</v>
       </c>
       <c r="F136" t="inlineStr">
         <is>
@@ -7708,13 +7708,13 @@
         </is>
       </c>
       <c r="C178" t="n">
-        <v>515888</v>
+        <v>515892</v>
       </c>
       <c r="D178" t="n">
         <v>115380</v>
       </c>
       <c r="E178" t="n">
-        <v>891213559</v>
+        <v>891219559</v>
       </c>
       <c r="F178" t="inlineStr">
         <is>
